--- a/data/trans_camb/P13_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-0.9888897431631821</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-1.129465619463522</v>
+        <v>-1.129465619463523</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.9052931140786175</v>
@@ -664,7 +664,7 @@
         <v>-0.7983655306862868</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.4119263863322953</v>
+        <v>-0.4119263863322974</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.505400186388506</v>
+        <v>-3.65910792153166</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.320772699172207</v>
+        <v>-3.481739955511849</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.333236738385323</v>
+        <v>-2.603251062612796</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.536245066739735</v>
+        <v>-4.728668839085365</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.437484325775269</v>
+        <v>-4.48320988000243</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.179576857986848</v>
+        <v>-4.10905671280558</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.004661109399178</v>
+        <v>-3.098819101614538</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.973540250938663</v>
+        <v>-2.817965039335944</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.650320715462029</v>
+        <v>-2.325271102767442</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.055355754411791</v>
+        <v>1.986002783792348</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.134254347941571</v>
+        <v>1.819317357178524</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.799438562134156</v>
+        <v>2.676057257823157</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.688166409715061</v>
+        <v>1.805540720675566</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.002734279083387</v>
+        <v>2.233056932804285</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.436678404028136</v>
+        <v>1.503635576703162</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.099124807727029</v>
+        <v>1.307643533921851</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.372885802425532</v>
+        <v>1.287965261836065</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.388067234301135</v>
+        <v>1.302721226637654</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.1893437536811211</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.2162599637841588</v>
+        <v>-0.2162599637841591</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.1935175727332955</v>
@@ -769,7 +769,7 @@
         <v>-0.1706604824997296</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.08805434746839456</v>
+        <v>-0.08805434746839501</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5956692433314782</v>
+        <v>-0.6134251264910205</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5847257812748278</v>
+        <v>-0.5945535919120152</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4304260904867253</v>
+        <v>-0.4693799189299218</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6622647915343688</v>
+        <v>-0.673900064843682</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6494186470501174</v>
+        <v>-0.6436728238589268</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5669621018490516</v>
+        <v>-0.5609238968031842</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5154451643555878</v>
+        <v>-0.526374183732775</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5071469427702469</v>
+        <v>-0.5085279231852532</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4206196542696068</v>
+        <v>-0.3900020692209036</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.709074470303656</v>
+        <v>0.6805254644673544</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7504326835806099</v>
+        <v>0.5844164394608329</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9427487700340664</v>
+        <v>1.008503308906844</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.541642153365148</v>
+        <v>0.5751578062532844</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5734996927031153</v>
+        <v>0.5903655578311044</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4689349222748159</v>
+        <v>0.4915054216317941</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3594275273675321</v>
+        <v>0.365024125575263</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4047229138290303</v>
+        <v>0.4049125537783605</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3800004095656436</v>
+        <v>0.3768030005553963</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.575743854782587</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.955562361595102</v>
+        <v>1.955562361595101</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>3.487484954864746</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3837652797370274</v>
+        <v>0.5408024269436024</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.4611261782539454</v>
+        <v>-0.6863147802489559</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1560218170567768</v>
+        <v>-0.1057336454690414</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5692793138588718</v>
+        <v>0.1593394622301212</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.634334269285939</v>
+        <v>-2.678513407498656</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.5218950106167087</v>
+        <v>-0.355836873453923</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.072406942004748</v>
+        <v>1.147910899177518</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.8567518610541947</v>
+        <v>-0.8535721540573172</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3222343842591545</v>
+        <v>0.2896562085539871</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.499784611773036</v>
+        <v>5.830147612117665</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.749774801958033</v>
+        <v>3.919081219208079</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.069839694805415</v>
+        <v>3.865730726538219</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.204084585728521</v>
+        <v>7.022587931619825</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.820614243555425</v>
+        <v>1.849379669088096</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.16561548760961</v>
+        <v>4.308286595896223</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.182530673569685</v>
+        <v>5.199074884454602</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.330401196698176</v>
+        <v>2.213358226386564</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.517268476668535</v>
+        <v>3.449729476026183</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>1.152975966299711</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.430890177154174</v>
+        <v>1.430890177154173</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.419345108736013</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1896465133723094</v>
+        <v>-0.09788161422359981</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.389238408492568</v>
+        <v>-0.4535106071444358</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2287269905355085</v>
+        <v>-0.2058175868558662</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.02034922381227596</v>
+        <v>-0.1100334008323068</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7549529249828506</v>
+        <v>-0.7429047809345811</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2005920808405785</v>
+        <v>-0.1657499072261988</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3198265487640884</v>
+        <v>0.3444688431682267</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.326778401371234</v>
+        <v>-0.3489428752820068</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.05017723669224183</v>
+        <v>0.05053677164643444</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12.62683417248828</v>
+        <v>13.83135962190123</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7.698642743912847</v>
+        <v>7.052241252249073</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7.953921248180924</v>
+        <v>8.47396046545032</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5.312877207115442</v>
+        <v>5.267177826101238</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.521252318631557</v>
+        <v>1.630152469560923</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.494327691894419</v>
+        <v>3.631489262946784</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4.256472779894016</v>
+        <v>4.088716170097953</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.053510197579556</v>
+        <v>1.958261708412852</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.183090708599608</v>
+        <v>3.136010415164724</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>1.620182211020561</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3.173634337052714</v>
+        <v>3.173634337052715</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.359347190661941</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.68541672728462</v>
+        <v>1.490280864463394</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1559404926113149</v>
+        <v>0.1554489256112365</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.366825992936881</v>
+        <v>1.376685459858182</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.04556895803166</v>
+        <v>-4.153229056403111</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.791472110904841</v>
+        <v>-4.632082103946025</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.513319566168093</v>
+        <v>-3.348814145432158</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.333886925423302</v>
+        <v>1.200050714328764</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.3147695954482475</v>
+        <v>0.05384938673788273</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.598227350854361</v>
+        <v>1.514316157440806</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.319707202838523</v>
+        <v>6.665253685746382</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.632674374843659</v>
+        <v>4.41159398211477</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.111678806433241</v>
+        <v>6.448367255631333</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.284046769951382</v>
+        <v>6.994621383556558</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.216223637063107</v>
+        <v>7.86925113876307</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.640756613742981</v>
+        <v>8.432204826491594</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.932773817337793</v>
+        <v>5.649508468063945</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.388799272901482</v>
+        <v>4.43430760119581</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.238159109516163</v>
+        <v>6.017843931782183</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.2194580656043388</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4298773605879678</v>
+        <v>0.429877360587968</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1.063088393207185</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.4787114837025041</v>
+        <v>0.4114577395817828</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.03720364232282878</v>
+        <v>-0.04536401565028662</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3821512808736252</v>
+        <v>0.3485411490506434</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3921155680758456</v>
+        <v>-0.4050451339861709</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4808338102898376</v>
+        <v>-0.5028287190973468</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2687312420239952</v>
+        <v>-0.3281165613321796</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2831926833648654</v>
+        <v>0.2768038049923751</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.09174696201669998</v>
+        <v>-0.01759591441808947</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3536603070020582</v>
+        <v>0.2960245375079255</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>6.064177846696157</v>
+        <v>5.748308845002964</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>4.46086111146708</v>
+        <v>3.821164517055823</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>5.944066963921642</v>
+        <v>5.908756955756004</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.774026468725848</v>
+        <v>1.507778809298185</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.838936936775086</v>
+        <v>1.785700354148173</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.883849937677063</v>
+        <v>1.8245413871872</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.687430504610892</v>
+        <v>2.551645657021068</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.888313613892075</v>
+        <v>1.992575819742891</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.710062783409739</v>
+        <v>2.613167035087888</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>0.4562093447812922</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.38671143789138</v>
+        <v>2.386711437891381</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.1287294148396272</v>
+        <v>0.03891558466928204</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.83862751102082</v>
+        <v>-1.891020054224876</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.207877889152826</v>
+        <v>1.263824937515233</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2161219156174763</v>
+        <v>-0.06932931479639451</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.062014740195142</v>
+        <v>-1.203961756572259</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.6430577881280852</v>
+        <v>-0.7040285605588537</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6596757427408753</v>
+        <v>0.7197768189643723</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.862739331250325</v>
+        <v>-0.7269240108860887</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.161852720019202</v>
+        <v>1.037939181979234</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.276835930611241</v>
+        <v>3.261543835099749</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.352465111689714</v>
+        <v>1.356718552574334</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.159461861966971</v>
+        <v>5.008129967111286</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.24026615874616</v>
+        <v>5.273397646771069</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.621460824827606</v>
+        <v>3.740135161329283</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.466793292726947</v>
+        <v>3.427937203618479</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.55571196530805</v>
+        <v>3.607630109625621</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.746515261294562</v>
+        <v>1.978518531662899</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.773742158550527</v>
+        <v>3.984967880966702</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.1122210212556051</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.5870971256211489</v>
+        <v>0.5870971256211492</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.04106471824770842</v>
+        <v>0.004014729269603286</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.397379364337545</v>
+        <v>-0.4280374224422622</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.263880330087435</v>
+        <v>0.3025336291478103</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.02537725148837683</v>
+        <v>-0.03632368750438961</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1932075351822966</v>
+        <v>-0.2052607453225857</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1049651967131489</v>
+        <v>-0.1288169993059582</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1375304015162453</v>
+        <v>0.1379895067804938</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1880239491064089</v>
+        <v>-0.1645268635294697</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2351806849735659</v>
+        <v>0.2080599619122148</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.24815498713899</v>
+        <v>1.177045805021839</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5207602038379956</v>
+        <v>0.4678927729314993</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.825667278310226</v>
+        <v>1.822177301805479</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.418547875609947</v>
+        <v>1.388014716792585</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9189547955681425</v>
+        <v>0.9820987495728889</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9578748491749968</v>
+        <v>0.926848684848363</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.045116185474506</v>
+        <v>1.015392598066789</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5069627924662421</v>
+        <v>0.5693400062652598</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.089362346168239</v>
+        <v>1.127006649581985</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>2.396918440207833</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>6.035244871403097</v>
+        <v>6.035244871403096</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.588669528328932</v>
@@ -1520,7 +1520,7 @@
         <v>1.370778633378344</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>4.301392874491325</v>
+        <v>4.301392874491327</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.231917273910272</v>
+        <v>-4.146684705479911</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.00768350960361</v>
+        <v>-2.993017319450097</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.696402319880236</v>
+        <v>-1.516886362432428</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.415530442291989</v>
+        <v>5.256447798701691</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.07729603402091814</v>
+        <v>0.03563587947189972</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.689683591026897</v>
+        <v>3.710355612574222</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.480020883196939</v>
+        <v>2.398403689816876</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.5199612389147725</v>
+        <v>-0.4703247178392893</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.359422155263596</v>
+        <v>2.218771961007217</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.505308647788962</v>
+        <v>1.475543702323149</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.040708313754351</v>
+        <v>2.611909888944568</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.595189115278068</v>
+        <v>4.757003924814419</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11.25988072560632</v>
+        <v>11.00752755961665</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.886588025423935</v>
+        <v>4.690515582645752</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.242557560988457</v>
+        <v>8.345727143553479</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.601554341127028</v>
+        <v>6.690692224034252</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.249237646811878</v>
+        <v>3.129070334899224</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.967055600253413</v>
+        <v>5.943428819801855</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.5952887452173592</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1.498888442055431</v>
+        <v>1.49888844205543</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>1.061519185692551</v>
@@ -1625,7 +1625,7 @@
         <v>0.317108872121902</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.9950620835265483</v>
+        <v>0.9950620835265487</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6266940623510672</v>
+        <v>-0.621189604527</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4281811923800714</v>
+        <v>-0.4506783408959076</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2631051368441198</v>
+        <v>-0.2502861035860632</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.9654559503061696</v>
+        <v>0.9327198842196169</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.03367130666364374</v>
+        <v>-0.008040460942039173</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6340694579926581</v>
+        <v>0.6550746320343706</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4482198550056503</v>
+        <v>0.4317979296153528</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1090353456841809</v>
+        <v>-0.09080795433355565</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.4078467588446225</v>
+        <v>0.3950233774750626</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4890116129110786</v>
+        <v>0.4847055208085848</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.101920410881027</v>
+        <v>0.9054454162515151</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.458979399488789</v>
+        <v>1.408246822522345</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>4.024392122889025</v>
+        <v>3.922071160295541</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.746385670269312</v>
+        <v>1.668477353742334</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.8746140959543</v>
+        <v>2.969543072301572</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.89751592085593</v>
+        <v>2.071933445187847</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.9657025904120348</v>
+        <v>0.9804040738013714</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.772519883452946</v>
+        <v>1.820903006021623</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.104402012488982</v>
+        <v>-0.955272405717087</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.589714579373847</v>
+        <v>-4.397604032956718</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.198847271055249</v>
+        <v>-3.566633358818359</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3.205087231044063</v>
+        <v>3.081606200279865</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.754080355048736</v>
+        <v>-1.980964712106212</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.29768665026662</v>
+        <v>1.445688914536359</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.991771296954608</v>
+        <v>2.818923632955616</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.999499126022173</v>
+        <v>-1.962869159295047</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.7468674502179984</v>
+        <v>0.8586549242342166</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.701176569817557</v>
+        <v>5.844516715549326</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-0.2644102253275951</v>
+        <v>-0.06592607826056522</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.871677263088387</v>
+        <v>1.444918410228458</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.854982486990145</v>
+        <v>7.632513324144533</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.051077149538655</v>
+        <v>1.925728033348802</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.347910084749019</v>
+        <v>5.192919109553187</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.920773223257648</v>
+        <v>6.787223304423688</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.417256936244433</v>
+        <v>1.119831062079157</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>4.140329450450359</v>
+        <v>4.091492943720583</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3475280440393528</v>
+        <v>-0.3213154864941264</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.813352105804375</v>
+        <v>-0.840687705470108</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.4986003414741683</v>
+        <v>0.4558576915516899</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2715259416475682</v>
+        <v>-0.3159908468014983</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1702863863149353</v>
+        <v>0.1869783021101048</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5262926456318598</v>
+        <v>0.5010486739065165</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.345088165891666</v>
+        <v>-0.3489009543079631</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.1170632091302693</v>
+        <v>0.1445152903808755</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.875816430545459</v>
+        <v>5.041664731860179</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3991318359759954</v>
+        <v>0.4751306977277911</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.873583434132776</v>
+        <v>1.362996218670247</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.718898732096255</v>
+        <v>1.581311891712043</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4396513535742781</v>
+        <v>0.4283658860205943</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.139404508536197</v>
+        <v>1.098352731832404</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.633134646070961</v>
+        <v>1.610685181573706</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.3549679118631919</v>
+        <v>0.2917398754855461</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.9840770340851133</v>
+        <v>0.9762895897837527</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.530712131394914</v>
+        <v>0.479742421236932</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.5799910812345836</v>
+        <v>-0.5766806137712035</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.21415955907439</v>
+        <v>1.114034484870021</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3.34224720328719</v>
+        <v>3.200867205998903</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.4885838155970313</v>
+        <v>-0.4176624103697505</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.626047479991641</v>
+        <v>1.555099593107251</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>2.219306209167699</v>
+        <v>2.193261526070614</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.1946564517473219</v>
+        <v>-0.219732091723452</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.612079018512912</v>
+        <v>1.649609318872123</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.51626595566576</v>
+        <v>2.381452626051037</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.236962646330604</v>
+        <v>1.210026984214695</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.170860596510961</v>
+        <v>3.029654260525953</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.823086276306533</v>
+        <v>5.686330516136335</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.807907202774614</v>
+        <v>1.769248409012701</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>3.620948471475611</v>
+        <v>3.627708029219054</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.774868528657008</v>
+        <v>3.802111037847493</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.25110597084192</v>
+        <v>1.151135527953294</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.063419379161032</v>
+        <v>3.022305518986738</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1458080815885806</v>
+        <v>0.1418362703507064</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1673407641708547</v>
+        <v>-0.1625537513326225</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.3223848034038353</v>
+        <v>0.3144016790175699</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.6166186539962153</v>
+        <v>0.6038656485300155</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.08774835636599125</v>
+        <v>-0.08131441809807372</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2942383664649617</v>
+        <v>0.2773197160514543</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.502777720958778</v>
+        <v>0.4912930152198775</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.04418444082672272</v>
+        <v>-0.05094994318040139</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.3592927057598993</v>
+        <v>0.3673616824344855</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.913157153542598</v>
+        <v>0.8801204800624307</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4561164216962933</v>
+        <v>0.4479723365660668</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.164630373383144</v>
+        <v>1.10758266271944</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.34977349051926</v>
+        <v>1.315673253553561</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.4277403278793179</v>
+        <v>0.4087764579449631</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.8438838306418761</v>
+        <v>0.8358333653471142</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.020444532960248</v>
+        <v>1.011055360388538</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.3461005348680698</v>
+        <v>0.3081781535441835</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.8310575194179946</v>
+        <v>0.8196562673896772</v>
       </c>
     </row>
     <row r="46">
